--- a/Documentos/Plano Dissertação/Calendariçação.xlsx
+++ b/Documentos/Plano Dissertação/Calendariçação.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="85">
   <si>
     <t xml:space="preserve">Calendário</t>
   </si>
@@ -214,23 +214,7 @@
     <t xml:space="preserve">Versão da aplicação capaz de satizfazer os requisitos funcionais e não funcionais de maior prioridade, previamente definidos com a entidade requisitante da aplicação.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">09/2023
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="NewsGotT"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">2023</t>
-    </r>
+    <t xml:space="preserve">09/2023</t>
   </si>
   <si>
     <t xml:space="preserve">Testagem do interface de utilizador e outros requisitos funcionais e não funcionais de maior prioridade.</t>
@@ -239,8 +223,7 @@
     <t xml:space="preserve">Versão final da aplicação, incluindo documentação e manual de utilização.</t>
   </si>
   <si>
-    <t xml:space="preserve">10/2023
-2023</t>
+    <t xml:space="preserve">10/2023</t>
   </si>
   <si>
     <t xml:space="preserve">Tabela de Milestones</t>
@@ -288,16 +271,10 @@
     <t xml:space="preserve">Finalização do documento de dissertação.</t>
   </si>
   <si>
-    <t xml:space="preserve">09/2023</t>
-  </si>
-  <si>
     <t xml:space="preserve">Produto final</t>
   </si>
   <si>
     <t xml:space="preserve">Produto final, com os requisitos principais implementados e testados e com interface de utilizador, devidamente testado.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/2023</t>
   </si>
 </sst>
 </file>
@@ -313,6 +290,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -334,34 +312,40 @@
       <sz val="14"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFC9211E"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="NewsGotT"/>
-      <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="13"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="NewsGotT"/>
+      <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="12">
@@ -648,7 +632,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -680,7 +664,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -740,7 +724,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -831,11 +815,11 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O19" activeCellId="0" sqref="O19"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A20" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q29" activeCellId="0" sqref="Q29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="45.71"/>
   </cols>
@@ -1617,15 +1601,15 @@
       <c r="L39" s="53"/>
       <c r="M39" s="54"/>
       <c r="N39" s="55" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="B40" s="52" t="s">
         <v>84</v>
-      </c>
-      <c r="B40" s="52" t="s">
-        <v>85</v>
       </c>
       <c r="C40" s="53"/>
       <c r="D40" s="53"/>
@@ -1639,7 +1623,7 @@
       <c r="L40" s="53"/>
       <c r="M40" s="54"/>
       <c r="N40" s="55" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
